--- a/data/pca/factorExposure/factorExposure_2011-05-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01734306187283713</v>
+        <v>0.01464746921594832</v>
       </c>
       <c r="C2">
-        <v>-0.004048473617583414</v>
+        <v>-0.0001663155349471041</v>
       </c>
       <c r="D2">
-        <v>0.0541304369784824</v>
+        <v>-0.007598440443391753</v>
       </c>
       <c r="E2">
-        <v>-0.02041226135471022</v>
+        <v>0.04236711164716734</v>
       </c>
       <c r="F2">
-        <v>0.03209774716518256</v>
+        <v>-0.003297573450843735</v>
       </c>
       <c r="G2">
-        <v>0.01830202895163527</v>
+        <v>-0.01000783038865359</v>
       </c>
       <c r="H2">
-        <v>-0.02632275783398091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03753895395958432</v>
+      </c>
+      <c r="I2">
+        <v>-0.0159078693575412</v>
+      </c>
+      <c r="J2">
+        <v>-0.006330935583333697</v>
+      </c>
+      <c r="K2">
+        <v>-0.05541314515837379</v>
+      </c>
+      <c r="L2">
+        <v>-0.01709158411158656</v>
+      </c>
+      <c r="M2">
+        <v>-0.004743174534547011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08271790118017529</v>
+        <v>0.1092016704055403</v>
       </c>
       <c r="C4">
-        <v>0.05688082314127659</v>
+        <v>0.07559455680364689</v>
       </c>
       <c r="D4">
-        <v>0.03094416200053177</v>
+        <v>-0.01581721897817206</v>
       </c>
       <c r="E4">
-        <v>-0.04113267757789557</v>
+        <v>0.04553589181678969</v>
       </c>
       <c r="F4">
-        <v>0.01855838792637056</v>
+        <v>0.1531336894500493</v>
       </c>
       <c r="G4">
-        <v>0.01402850989906203</v>
+        <v>0.03641347543264333</v>
       </c>
       <c r="H4">
-        <v>-0.005210407853455193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03732506076587831</v>
+      </c>
+      <c r="I4">
+        <v>0.03727482509701958</v>
+      </c>
+      <c r="J4">
+        <v>-0.02222249535798455</v>
+      </c>
+      <c r="K4">
+        <v>0.09316943144019696</v>
+      </c>
+      <c r="L4">
+        <v>-0.04256240943688367</v>
+      </c>
+      <c r="M4">
+        <v>0.05989728681869069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1306098347992516</v>
+        <v>0.1335065462510597</v>
       </c>
       <c r="C6">
-        <v>0.0379491794087413</v>
+        <v>0.05170741102374601</v>
       </c>
       <c r="D6">
-        <v>0.03860075799087222</v>
+        <v>0.0002551702079656142</v>
       </c>
       <c r="E6">
-        <v>-0.05121682382934163</v>
+        <v>-0.000758644395757724</v>
       </c>
       <c r="F6">
-        <v>-0.1078264253662474</v>
+        <v>-0.01284777668474551</v>
       </c>
       <c r="G6">
-        <v>-0.05903169899867063</v>
+        <v>0.1072382094801918</v>
       </c>
       <c r="H6">
-        <v>0.2558809124299176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.0007039627302731648</v>
+      </c>
+      <c r="I6">
+        <v>0.3408540327058138</v>
+      </c>
+      <c r="J6">
+        <v>0.2942274598356338</v>
+      </c>
+      <c r="K6">
+        <v>0.1137540694972755</v>
+      </c>
+      <c r="L6">
+        <v>-0.09652282336497948</v>
+      </c>
+      <c r="M6">
+        <v>-0.03946383970553684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07409726912903135</v>
+        <v>0.07011482189310769</v>
       </c>
       <c r="C7">
-        <v>0.0507522387520142</v>
+        <v>0.06373128712797324</v>
       </c>
       <c r="D7">
-        <v>0.04277164666265743</v>
+        <v>-0.01246180459541959</v>
       </c>
       <c r="E7">
-        <v>-0.04524655526031742</v>
+        <v>0.05543761214111453</v>
       </c>
       <c r="F7">
-        <v>-0.04783893779663823</v>
+        <v>0.02662488346636956</v>
       </c>
       <c r="G7">
-        <v>0.002498741760924371</v>
+        <v>0.01584481920712871</v>
       </c>
       <c r="H7">
-        <v>-0.01862492256101169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01892243958138435</v>
+      </c>
+      <c r="I7">
+        <v>-0.03248299860416509</v>
+      </c>
+      <c r="J7">
+        <v>-0.08678228703114761</v>
+      </c>
+      <c r="K7">
+        <v>0.06114259142515549</v>
+      </c>
+      <c r="L7">
+        <v>-0.0246736415328334</v>
+      </c>
+      <c r="M7">
+        <v>-0.05440023666167552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03613928922613444</v>
+        <v>0.04194767174372954</v>
       </c>
       <c r="C8">
-        <v>0.02389777883911588</v>
+        <v>0.0175756162432479</v>
       </c>
       <c r="D8">
-        <v>0.06049019514872778</v>
+        <v>-0.006287708193220093</v>
       </c>
       <c r="E8">
-        <v>-0.05089049268991676</v>
+        <v>0.03533642480337713</v>
       </c>
       <c r="F8">
-        <v>0.01573315179244925</v>
+        <v>0.1262361878125704</v>
       </c>
       <c r="G8">
-        <v>0.04937753016441354</v>
+        <v>0.01323443125884585</v>
       </c>
       <c r="H8">
-        <v>0.005955527981244766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.02723821640071506</v>
+      </c>
+      <c r="I8">
+        <v>0.0604689001873185</v>
+      </c>
+      <c r="J8">
+        <v>-0.0398084366806039</v>
+      </c>
+      <c r="K8">
+        <v>0.05891700761157586</v>
+      </c>
+      <c r="L8">
+        <v>-0.07932879615519113</v>
+      </c>
+      <c r="M8">
+        <v>0.06906211512955733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08104653941517428</v>
+        <v>0.08396369042801223</v>
       </c>
       <c r="C9">
-        <v>0.06258064170706722</v>
+        <v>0.06781791616392334</v>
       </c>
       <c r="D9">
-        <v>0.03272456501411736</v>
+        <v>0.002306193617118718</v>
       </c>
       <c r="E9">
-        <v>-0.04076145275550688</v>
+        <v>0.03018782973558771</v>
       </c>
       <c r="F9">
-        <v>0.02564938203341147</v>
+        <v>0.1380062471069031</v>
       </c>
       <c r="G9">
-        <v>0.0148297799027485</v>
+        <v>0.03693727287927264</v>
       </c>
       <c r="H9">
-        <v>0.0007275808254761982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.008668850950769412</v>
+      </c>
+      <c r="I9">
+        <v>0.01341237472385199</v>
+      </c>
+      <c r="J9">
+        <v>-0.02721676693103105</v>
+      </c>
+      <c r="K9">
+        <v>0.05130037140333307</v>
+      </c>
+      <c r="L9">
+        <v>-0.03872724904945436</v>
+      </c>
+      <c r="M9">
+        <v>-0.008547575795061251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05273895599876658</v>
+        <v>0.1114307641748434</v>
       </c>
       <c r="C10">
-        <v>-0.142904619982102</v>
+        <v>-0.1638557381316808</v>
       </c>
       <c r="D10">
-        <v>0.08002830881830628</v>
+        <v>-0.01183975809856179</v>
       </c>
       <c r="E10">
-        <v>-0.03930832805122318</v>
+        <v>0.04410436411646864</v>
       </c>
       <c r="F10">
-        <v>-0.04043624933999778</v>
+        <v>-0.02037611486482673</v>
       </c>
       <c r="G10">
-        <v>-0.0007447696596138599</v>
+        <v>0.0287067598231965</v>
       </c>
       <c r="H10">
-        <v>0.02599380508045831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01745722557446778</v>
+      </c>
+      <c r="I10">
+        <v>-0.02709940019224879</v>
+      </c>
+      <c r="J10">
+        <v>0.01320529547618868</v>
+      </c>
+      <c r="K10">
+        <v>-0.01552992407737241</v>
+      </c>
+      <c r="L10">
+        <v>0.04018866510108556</v>
+      </c>
+      <c r="M10">
+        <v>-0.1079938467058518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07585231415989391</v>
+        <v>0.06857661869557084</v>
       </c>
       <c r="C11">
-        <v>0.07882062751351068</v>
+        <v>0.07337477041574683</v>
       </c>
       <c r="D11">
-        <v>0.01466131912254212</v>
+        <v>0.02881272487228676</v>
       </c>
       <c r="E11">
-        <v>-0.001535569370148472</v>
+        <v>0.01016850888142081</v>
       </c>
       <c r="F11">
-        <v>0.04117788030114403</v>
+        <v>0.1137143270618305</v>
       </c>
       <c r="G11">
-        <v>0.08065316358081273</v>
+        <v>0.01794017395601753</v>
       </c>
       <c r="H11">
-        <v>-0.03756840183470928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.0479080157013254</v>
+      </c>
+      <c r="I11">
+        <v>-0.05156806269293292</v>
+      </c>
+      <c r="J11">
+        <v>-0.05229241462633218</v>
+      </c>
+      <c r="K11">
+        <v>-0.06169873717924738</v>
+      </c>
+      <c r="L11">
+        <v>-0.02375204095916538</v>
+      </c>
+      <c r="M11">
+        <v>-0.1273691207437901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07226334538314032</v>
+        <v>0.06875837990593016</v>
       </c>
       <c r="C12">
-        <v>0.05080143087235532</v>
+        <v>0.06491632959853016</v>
       </c>
       <c r="D12">
-        <v>0.007342720372522799</v>
+        <v>0.02869032020144134</v>
       </c>
       <c r="E12">
-        <v>-0.0309711866874726</v>
+        <v>0.001855360568173303</v>
       </c>
       <c r="F12">
-        <v>-0.004414826088184817</v>
+        <v>0.119065064612435</v>
       </c>
       <c r="G12">
-        <v>0.05933208124275221</v>
+        <v>0.0146817087904254</v>
       </c>
       <c r="H12">
-        <v>-0.0418084275964488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.04524283070926698</v>
+      </c>
+      <c r="I12">
+        <v>-0.01632042109514517</v>
+      </c>
+      <c r="J12">
+        <v>-0.0745902949987613</v>
+      </c>
+      <c r="K12">
+        <v>-0.04711349800905678</v>
+      </c>
+      <c r="L12">
+        <v>-0.03779543181063486</v>
+      </c>
+      <c r="M12">
+        <v>-0.1426317274014721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.0611107649469481</v>
+        <v>0.04549224319946849</v>
       </c>
       <c r="C13">
-        <v>0.007659624954275782</v>
+        <v>0.03346206262430435</v>
       </c>
       <c r="D13">
-        <v>-0.004670477204605629</v>
+        <v>-0.02217091397511853</v>
       </c>
       <c r="E13">
-        <v>-0.02876569215924673</v>
+        <v>0.008748818698200045</v>
       </c>
       <c r="F13">
-        <v>0.05553479656456663</v>
+        <v>0.04987377272229956</v>
       </c>
       <c r="G13">
-        <v>-0.0004789853396643308</v>
+        <v>0.0002610173853203889</v>
       </c>
       <c r="H13">
-        <v>0.007302353043096865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01964022935217831</v>
+      </c>
+      <c r="I13">
+        <v>0.007565691000569024</v>
+      </c>
+      <c r="J13">
+        <v>-0.02381184174824442</v>
+      </c>
+      <c r="K13">
+        <v>0.03485923548245013</v>
+      </c>
+      <c r="L13">
+        <v>0.009177581590373613</v>
+      </c>
+      <c r="M13">
+        <v>0.0316278031749112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.0495156000452179</v>
+        <v>0.03954631898581686</v>
       </c>
       <c r="C14">
-        <v>0.01855161196769926</v>
+        <v>0.02792028826254089</v>
       </c>
       <c r="D14">
-        <v>0.02342102840983887</v>
+        <v>0.0140363573977885</v>
       </c>
       <c r="E14">
-        <v>-0.02250538447236549</v>
+        <v>0.01643417467918784</v>
       </c>
       <c r="F14">
-        <v>-0.01807875740010603</v>
+        <v>0.06682305229477335</v>
       </c>
       <c r="G14">
-        <v>-0.008200524731622473</v>
+        <v>0.001095757136234482</v>
       </c>
       <c r="H14">
-        <v>0.07959625337686807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03458948922106589</v>
+      </c>
+      <c r="I14">
+        <v>-0.002456445972605352</v>
+      </c>
+      <c r="J14">
+        <v>-0.001479147802639863</v>
+      </c>
+      <c r="K14">
+        <v>0.1014846862413604</v>
+      </c>
+      <c r="L14">
+        <v>-0.02891361767595009</v>
+      </c>
+      <c r="M14">
+        <v>0.002660489604133915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03591581534222732</v>
+        <v>0.02503975835542283</v>
       </c>
       <c r="C15">
-        <v>-0.007890881238623484</v>
+        <v>0.009305329001588605</v>
       </c>
       <c r="D15">
-        <v>-0.004760717982425305</v>
+        <v>-0.05507487528666212</v>
       </c>
       <c r="E15">
-        <v>-0.02080747005227686</v>
+        <v>0.003378676610900841</v>
       </c>
       <c r="F15">
-        <v>0.00736942320541628</v>
+        <v>0.002852736999255668</v>
       </c>
       <c r="G15">
-        <v>-0.01468688747345445</v>
+        <v>0.04072744029529916</v>
       </c>
       <c r="H15">
-        <v>0.01586858719094288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01906988129424228</v>
+      </c>
+      <c r="I15">
+        <v>-0.00234627809201377</v>
+      </c>
+      <c r="J15">
+        <v>0.002744537514616752</v>
+      </c>
+      <c r="K15">
+        <v>0.08197781099858516</v>
+      </c>
+      <c r="L15">
+        <v>-0.00172976033370405</v>
+      </c>
+      <c r="M15">
+        <v>-0.008123629105504194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06745998240843745</v>
+        <v>0.07182628608531767</v>
       </c>
       <c r="C16">
-        <v>0.0786639259535772</v>
+        <v>0.0796424265658416</v>
       </c>
       <c r="D16">
-        <v>0.01701351134411456</v>
+        <v>0.0185958797103784</v>
       </c>
       <c r="E16">
-        <v>-0.03508993595689532</v>
+        <v>0.009563731491155299</v>
       </c>
       <c r="F16">
-        <v>0.04180276744498297</v>
+        <v>0.116001470077642</v>
       </c>
       <c r="G16">
-        <v>0.05503278982721678</v>
+        <v>0.007377420132289125</v>
       </c>
       <c r="H16">
-        <v>-0.03206156549277103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.03265701050538167</v>
+      </c>
+      <c r="I16">
+        <v>-0.03279656243725663</v>
+      </c>
+      <c r="J16">
+        <v>-0.06993819605690405</v>
+      </c>
+      <c r="K16">
+        <v>-0.04651630776309204</v>
+      </c>
+      <c r="L16">
+        <v>-0.04490375208034125</v>
+      </c>
+      <c r="M16">
+        <v>-0.1320272148278365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04545295492033549</v>
+        <v>0.04686337311580634</v>
       </c>
       <c r="C20">
-        <v>0.04201538004916452</v>
+        <v>0.03217825311256923</v>
       </c>
       <c r="D20">
-        <v>0.008108865388995037</v>
+        <v>-0.02433560893448054</v>
       </c>
       <c r="E20">
-        <v>-0.01838571044634417</v>
+        <v>0.02180572658207211</v>
       </c>
       <c r="F20">
-        <v>0.02214669840090979</v>
+        <v>0.0687308532104822</v>
       </c>
       <c r="G20">
-        <v>0.01971913319021418</v>
+        <v>-0.01535743597635012</v>
       </c>
       <c r="H20">
-        <v>-0.0004877384718712078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01612305657402719</v>
+      </c>
+      <c r="I20">
+        <v>0.01212590013999782</v>
+      </c>
+      <c r="J20">
+        <v>-0.02888172351655669</v>
+      </c>
+      <c r="K20">
+        <v>0.06081947985943546</v>
+      </c>
+      <c r="L20">
+        <v>-0.04615358037653859</v>
+      </c>
+      <c r="M20">
+        <v>-0.02482177289935499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02207887085711812</v>
+        <v>0.02331336405159619</v>
       </c>
       <c r="C21">
-        <v>0.03102349230135714</v>
+        <v>0.02270694515929755</v>
       </c>
       <c r="D21">
-        <v>-0.002532281393379689</v>
+        <v>-0.0068109916259929</v>
       </c>
       <c r="E21">
-        <v>-0.05577695618420217</v>
+        <v>0.0285871787749826</v>
       </c>
       <c r="F21">
-        <v>-0.0708814115799917</v>
+        <v>0.06135924815234663</v>
       </c>
       <c r="G21">
-        <v>-0.004457595215624175</v>
+        <v>0.08161927560701589</v>
       </c>
       <c r="H21">
-        <v>0.02363210141670629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.100268222191421</v>
+      </c>
+      <c r="I21">
+        <v>-0.009560926085881903</v>
+      </c>
+      <c r="J21">
+        <v>-0.02421664663090453</v>
+      </c>
+      <c r="K21">
+        <v>0.09925006103746166</v>
+      </c>
+      <c r="L21">
+        <v>0.02465969078786559</v>
+      </c>
+      <c r="M21">
+        <v>-0.04364587660257162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01601153229670457</v>
+        <v>0.04351909401629284</v>
       </c>
       <c r="C22">
-        <v>0.03821730560742825</v>
+        <v>0.02671600907379662</v>
       </c>
       <c r="D22">
-        <v>-0.07345764719477992</v>
+        <v>-0.6544852052944741</v>
       </c>
       <c r="E22">
-        <v>-0.5222998932393458</v>
+        <v>0.05071122057908412</v>
       </c>
       <c r="F22">
-        <v>0.1152575623425813</v>
+        <v>-0.05029956541554458</v>
       </c>
       <c r="G22">
-        <v>-0.2228860936075962</v>
+        <v>-0.1405699594314789</v>
       </c>
       <c r="H22">
-        <v>-0.2154180084714782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1065266797466824</v>
+      </c>
+      <c r="I22">
+        <v>-0.005031835100510893</v>
+      </c>
+      <c r="J22">
+        <v>0.01181778840122756</v>
+      </c>
+      <c r="K22">
+        <v>-0.0213130686408884</v>
+      </c>
+      <c r="L22">
+        <v>0.01578260970897899</v>
+      </c>
+      <c r="M22">
+        <v>-0.00590849537903856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01483773533091153</v>
+        <v>0.0437434592806723</v>
       </c>
       <c r="C23">
-        <v>0.03712536149733794</v>
+        <v>0.02691578339324037</v>
       </c>
       <c r="D23">
-        <v>-0.07282644390052651</v>
+        <v>-0.6559727164877772</v>
       </c>
       <c r="E23">
-        <v>-0.5211521563081303</v>
+        <v>0.05114796556229433</v>
       </c>
       <c r="F23">
-        <v>0.114321086772547</v>
+        <v>-0.04750731491323078</v>
       </c>
       <c r="G23">
-        <v>-0.2238426611631237</v>
+        <v>-0.14091158491387</v>
       </c>
       <c r="H23">
-        <v>-0.2128596110932975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1045729312913047</v>
+      </c>
+      <c r="I23">
+        <v>-0.002388991090980488</v>
+      </c>
+      <c r="J23">
+        <v>0.01442644268554938</v>
+      </c>
+      <c r="K23">
+        <v>-0.02294495405948749</v>
+      </c>
+      <c r="L23">
+        <v>0.01416673076764898</v>
+      </c>
+      <c r="M23">
+        <v>-0.006751364445147209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07924267156057871</v>
+        <v>0.07577475481865534</v>
       </c>
       <c r="C24">
-        <v>0.06649401876110081</v>
+        <v>0.07573198135176239</v>
       </c>
       <c r="D24">
-        <v>0.01737216774564683</v>
+        <v>0.01358856484397828</v>
       </c>
       <c r="E24">
-        <v>-0.03459153190290345</v>
+        <v>0.01386394489564569</v>
       </c>
       <c r="F24">
-        <v>0.02232673413757684</v>
+        <v>0.1141964308254819</v>
       </c>
       <c r="G24">
-        <v>0.05930942011485033</v>
+        <v>0.01570650388861369</v>
       </c>
       <c r="H24">
-        <v>-0.02084734167532441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.03939319267420466</v>
+      </c>
+      <c r="I24">
+        <v>-0.03296365908689502</v>
+      </c>
+      <c r="J24">
+        <v>-0.04656872480246761</v>
+      </c>
+      <c r="K24">
+        <v>-0.05970736643535402</v>
+      </c>
+      <c r="L24">
+        <v>-0.03546474805456437</v>
+      </c>
+      <c r="M24">
+        <v>-0.1094052734851274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.073708184647007</v>
+        <v>0.07303756856295189</v>
       </c>
       <c r="C25">
-        <v>0.0402523979253598</v>
+        <v>0.05241761939020397</v>
       </c>
       <c r="D25">
-        <v>0.0229482371678185</v>
+        <v>0.03192108600197494</v>
       </c>
       <c r="E25">
-        <v>-0.04676721509096328</v>
+        <v>0.01070233491158622</v>
       </c>
       <c r="F25">
-        <v>0.03744379311426824</v>
+        <v>0.1217986211404493</v>
       </c>
       <c r="G25">
-        <v>0.06615866154968383</v>
+        <v>0.004043000091861013</v>
       </c>
       <c r="H25">
-        <v>0.008291251705655958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0289116552213494</v>
+      </c>
+      <c r="I25">
+        <v>-0.03554366254518839</v>
+      </c>
+      <c r="J25">
+        <v>-0.03852555872263966</v>
+      </c>
+      <c r="K25">
+        <v>-0.07177275366151721</v>
+      </c>
+      <c r="L25">
+        <v>-0.05511157555397544</v>
+      </c>
+      <c r="M25">
+        <v>-0.1150368243845927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.0483471481639424</v>
+        <v>0.04361168329279717</v>
       </c>
       <c r="C26">
-        <v>0.04028668793246323</v>
+        <v>0.01707605071898364</v>
       </c>
       <c r="D26">
-        <v>0.03933172650161259</v>
+        <v>-0.01146676124568339</v>
       </c>
       <c r="E26">
-        <v>-0.007613372430709703</v>
+        <v>0.002888165208583293</v>
       </c>
       <c r="F26">
-        <v>0.01158137926502465</v>
+        <v>0.04760802835904706</v>
       </c>
       <c r="G26">
-        <v>-0.02239465004511185</v>
+        <v>-0.006644389069880959</v>
       </c>
       <c r="H26">
-        <v>0.001909907039118216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01238116032346868</v>
+      </c>
+      <c r="I26">
+        <v>-0.01501809898664591</v>
+      </c>
+      <c r="J26">
+        <v>-0.02764256658604583</v>
+      </c>
+      <c r="K26">
+        <v>0.1319791339209845</v>
+      </c>
+      <c r="L26">
+        <v>0.02480067353237616</v>
+      </c>
+      <c r="M26">
+        <v>-0.0500603255824828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09637897941337567</v>
+        <v>0.1457024891526948</v>
       </c>
       <c r="C28">
-        <v>-0.2919933525040109</v>
+        <v>-0.284126332564812</v>
       </c>
       <c r="D28">
-        <v>0.07140048755276987</v>
+        <v>0.008098044779554408</v>
       </c>
       <c r="E28">
-        <v>-0.002563529813071336</v>
+        <v>0.02341892302454695</v>
       </c>
       <c r="F28">
-        <v>-0.05304573609769856</v>
+        <v>0.001669910035053475</v>
       </c>
       <c r="G28">
-        <v>0.006993394754159557</v>
+        <v>0.005440016343016239</v>
       </c>
       <c r="H28">
-        <v>-0.05573990164865949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01833332750562518</v>
+      </c>
+      <c r="I28">
+        <v>0.02331706624918769</v>
+      </c>
+      <c r="J28">
+        <v>-0.02411403081402268</v>
+      </c>
+      <c r="K28">
+        <v>0.01274269808966304</v>
+      </c>
+      <c r="L28">
+        <v>0.01430409326448861</v>
+      </c>
+      <c r="M28">
+        <v>0.009110921364460067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.0512670558251688</v>
+        <v>0.04051358941866747</v>
       </c>
       <c r="C29">
-        <v>0.01507908256064144</v>
+        <v>0.02706125569209231</v>
       </c>
       <c r="D29">
-        <v>0.01093977451387167</v>
+        <v>0.005589780326275328</v>
       </c>
       <c r="E29">
-        <v>-0.02971137516517021</v>
+        <v>0.02224398840712332</v>
       </c>
       <c r="F29">
-        <v>0.006295283993974326</v>
+        <v>0.06690975132287415</v>
       </c>
       <c r="G29">
-        <v>-0.01619592464520517</v>
+        <v>-0.009402016679039815</v>
       </c>
       <c r="H29">
-        <v>0.01710461848919135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01334349267699225</v>
+      </c>
+      <c r="I29">
+        <v>0.005930364590779296</v>
+      </c>
+      <c r="J29">
+        <v>-0.008275361830674356</v>
+      </c>
+      <c r="K29">
+        <v>0.09160601818829062</v>
+      </c>
+      <c r="L29">
+        <v>-0.02195593221899262</v>
+      </c>
+      <c r="M29">
+        <v>-0.01485018354397013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1292811570621159</v>
+        <v>0.105472817320427</v>
       </c>
       <c r="C30">
-        <v>0.05058420245763794</v>
+        <v>0.05879365915596579</v>
       </c>
       <c r="D30">
-        <v>0.04722516069949737</v>
+        <v>0.005172307862695961</v>
       </c>
       <c r="E30">
-        <v>-0.1140461006540752</v>
+        <v>0.04963250202208702</v>
       </c>
       <c r="F30">
-        <v>-0.02192017954765381</v>
+        <v>0.2174730295925788</v>
       </c>
       <c r="G30">
-        <v>0.1709026792806741</v>
+        <v>-0.1271433386599327</v>
       </c>
       <c r="H30">
-        <v>0.008080519441482019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2426453117091613</v>
+      </c>
+      <c r="I30">
+        <v>0.1389871398368435</v>
+      </c>
+      <c r="J30">
+        <v>-0.07776978265583287</v>
+      </c>
+      <c r="K30">
+        <v>0.1253156539038144</v>
+      </c>
+      <c r="L30">
+        <v>-0.08749228832884544</v>
+      </c>
+      <c r="M30">
+        <v>0.4705689412289734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05030259341866569</v>
+        <v>0.03826962942717756</v>
       </c>
       <c r="C31">
-        <v>0.02054800989733721</v>
+        <v>0.05074581116919711</v>
       </c>
       <c r="D31">
-        <v>-0.0105709854287498</v>
+        <v>-0.00395810245537021</v>
       </c>
       <c r="E31">
-        <v>-0.003129706218076021</v>
+        <v>-0.009970247928677839</v>
       </c>
       <c r="F31">
-        <v>0.01236477445337618</v>
+        <v>0.02975811187664232</v>
       </c>
       <c r="G31">
-        <v>-0.03777493141514687</v>
+        <v>-0.01161810591566977</v>
       </c>
       <c r="H31">
-        <v>0.002984448205095106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04527649240041873</v>
+      </c>
+      <c r="I31">
+        <v>-0.001219428448492361</v>
+      </c>
+      <c r="J31">
+        <v>-0.002037231867474865</v>
+      </c>
+      <c r="K31">
+        <v>0.02598396709440504</v>
+      </c>
+      <c r="L31">
+        <v>-0.03121581181101253</v>
+      </c>
+      <c r="M31">
+        <v>-0.002626572791132477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01603562378805487</v>
+        <v>0.04368382326098186</v>
       </c>
       <c r="C32">
-        <v>-0.01993031139033167</v>
+        <v>-0.004152557595792116</v>
       </c>
       <c r="D32">
-        <v>-0.002509113900122906</v>
+        <v>0.01466326059547376</v>
       </c>
       <c r="E32">
-        <v>-0.0849532537643525</v>
+        <v>-0.002138045367619588</v>
       </c>
       <c r="F32">
-        <v>0.08320175049416464</v>
+        <v>0.08183890240278061</v>
       </c>
       <c r="G32">
-        <v>0.02930617202888854</v>
+        <v>0.02904886702867783</v>
       </c>
       <c r="H32">
-        <v>-0.04612983982066558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03430034445062372</v>
+      </c>
+      <c r="I32">
+        <v>-0.05988770258311103</v>
+      </c>
+      <c r="J32">
+        <v>-0.04221747766516977</v>
+      </c>
+      <c r="K32">
+        <v>0.0265598713312077</v>
+      </c>
+      <c r="L32">
+        <v>-0.03176826560772872</v>
+      </c>
+      <c r="M32">
+        <v>0.1588771004366545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1075983852943895</v>
+        <v>0.09863603287983276</v>
       </c>
       <c r="C33">
-        <v>0.03750842625116528</v>
+        <v>0.0663610310628349</v>
       </c>
       <c r="D33">
-        <v>0.001218539421929132</v>
+        <v>0.01513261527126901</v>
       </c>
       <c r="E33">
-        <v>-0.02622204201645744</v>
+        <v>-0.01693537175202251</v>
       </c>
       <c r="F33">
-        <v>0.0564024407617227</v>
+        <v>0.08778425637610376</v>
       </c>
       <c r="G33">
-        <v>0.01793300878919892</v>
+        <v>-0.01836496081729231</v>
       </c>
       <c r="H33">
-        <v>0.00909621494641054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.001639794973138672</v>
+      </c>
+      <c r="I33">
+        <v>-0.01516695325985988</v>
+      </c>
+      <c r="J33">
+        <v>0.01958574117273471</v>
+      </c>
+      <c r="K33">
+        <v>0.04844705594540762</v>
+      </c>
+      <c r="L33">
+        <v>-0.004738011603600975</v>
+      </c>
+      <c r="M33">
+        <v>-0.002478384778750323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05647132281234557</v>
+        <v>0.06369953756591505</v>
       </c>
       <c r="C34">
-        <v>0.06905126839025204</v>
+        <v>0.06549039039464656</v>
       </c>
       <c r="D34">
-        <v>0.004815362354625488</v>
+        <v>0.02201982414926833</v>
       </c>
       <c r="E34">
-        <v>-0.01871672930055848</v>
+        <v>0.00773971268797382</v>
       </c>
       <c r="F34">
-        <v>0.02585943976676846</v>
+        <v>0.1064032412865963</v>
       </c>
       <c r="G34">
-        <v>0.04175314722737805</v>
+        <v>0.01410544975541323</v>
       </c>
       <c r="H34">
-        <v>-0.02003826204696904</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.01895739605328975</v>
+      </c>
+      <c r="I34">
+        <v>-0.03957780714657338</v>
+      </c>
+      <c r="J34">
+        <v>-0.06843164427769285</v>
+      </c>
+      <c r="K34">
+        <v>-0.02607916666501275</v>
+      </c>
+      <c r="L34">
+        <v>-0.04479423800970311</v>
+      </c>
+      <c r="M34">
+        <v>-0.1221559632068311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04586582409258431</v>
+        <v>0.02566820774486204</v>
       </c>
       <c r="C35">
-        <v>0.03694344883112074</v>
+        <v>0.02492741963200026</v>
       </c>
       <c r="D35">
-        <v>-0.008667246274668746</v>
+        <v>3.474031672104242e-05</v>
       </c>
       <c r="E35">
-        <v>-0.01701929033681418</v>
+        <v>-0.0006136261402008545</v>
       </c>
       <c r="F35">
-        <v>-0.005773040722906408</v>
+        <v>0.03434381349043623</v>
       </c>
       <c r="G35">
-        <v>0.005800929134601555</v>
+        <v>-0.00729245121102843</v>
       </c>
       <c r="H35">
-        <v>0.01064400438063154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01915957967493515</v>
+      </c>
+      <c r="I35">
+        <v>-0.0187457728684556</v>
+      </c>
+      <c r="J35">
+        <v>-0.06247492789884867</v>
+      </c>
+      <c r="K35">
+        <v>0.04600137363201753</v>
+      </c>
+      <c r="L35">
+        <v>-0.03872262658589991</v>
+      </c>
+      <c r="M35">
+        <v>-0.009472378838150749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03457364500999969</v>
+        <v>0.02752498787758046</v>
       </c>
       <c r="C36">
-        <v>0.01976277993873461</v>
+        <v>0.01719238132988586</v>
       </c>
       <c r="D36">
-        <v>0.02465587345777797</v>
+        <v>-0.01301134447462385</v>
       </c>
       <c r="E36">
-        <v>-0.03988579017876381</v>
+        <v>0.01394083195817947</v>
       </c>
       <c r="F36">
-        <v>0.02863700957683306</v>
+        <v>0.06607581334377684</v>
       </c>
       <c r="G36">
-        <v>0.006500922451049828</v>
+        <v>-0.00127391100128244</v>
       </c>
       <c r="H36">
-        <v>0.03388248162013567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.008699868467923652</v>
+      </c>
+      <c r="I36">
+        <v>0.0122229556267252</v>
+      </c>
+      <c r="J36">
+        <v>0.01345514902005979</v>
+      </c>
+      <c r="K36">
+        <v>0.04705114526086448</v>
+      </c>
+      <c r="L36">
+        <v>-0.0101037177592481</v>
+      </c>
+      <c r="M36">
+        <v>-0.05660066280437493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.0503674400378027</v>
+        <v>0.0284911335659416</v>
       </c>
       <c r="C38">
-        <v>0.03987610114663242</v>
+        <v>0.0474990550571743</v>
       </c>
       <c r="D38">
-        <v>-0.002590674500929076</v>
+        <v>-0.021829108443608</v>
       </c>
       <c r="E38">
-        <v>-0.03900840448496232</v>
+        <v>0.008961583157972136</v>
       </c>
       <c r="F38">
-        <v>0.05773599882315188</v>
+        <v>-0.03917010233825607</v>
       </c>
       <c r="G38">
-        <v>0.02018319793343592</v>
+        <v>-0.05690500625874034</v>
       </c>
       <c r="H38">
-        <v>-0.01706688902844368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.002093430729896761</v>
+      </c>
+      <c r="I38">
+        <v>-0.02002155934373956</v>
+      </c>
+      <c r="J38">
+        <v>-0.008879563471175855</v>
+      </c>
+      <c r="K38">
+        <v>0.07357484453927172</v>
+      </c>
+      <c r="L38">
+        <v>0.09436091722926829</v>
+      </c>
+      <c r="M38">
+        <v>0.08768071403174524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1015168309858731</v>
+        <v>0.1041385001399614</v>
       </c>
       <c r="C39">
-        <v>0.08075207369706221</v>
+        <v>0.09400122340001311</v>
       </c>
       <c r="D39">
-        <v>-0.006841061292427571</v>
+        <v>0.08486765871454914</v>
       </c>
       <c r="E39">
-        <v>-0.03525410287272072</v>
+        <v>-0.02691766107407068</v>
       </c>
       <c r="F39">
-        <v>0.02025436872555414</v>
+        <v>0.1679880556930519</v>
       </c>
       <c r="G39">
-        <v>0.1049386686743813</v>
+        <v>-0.08666205479403444</v>
       </c>
       <c r="H39">
-        <v>-0.08400675979975547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09460888771320093</v>
+      </c>
+      <c r="I39">
+        <v>-0.01172053307482246</v>
+      </c>
+      <c r="J39">
+        <v>-0.1469311025221055</v>
+      </c>
+      <c r="K39">
+        <v>-0.1349825185657222</v>
+      </c>
+      <c r="L39">
+        <v>-0.08941016847194494</v>
+      </c>
+      <c r="M39">
+        <v>0.00111965311312974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04713653900729361</v>
+        <v>0.03276895102317699</v>
       </c>
       <c r="C40">
-        <v>0.0306275788289101</v>
+        <v>0.05950477165105083</v>
       </c>
       <c r="D40">
-        <v>-0.05503167633149244</v>
+        <v>-0.04443353533183107</v>
       </c>
       <c r="E40">
-        <v>-0.1245819020469915</v>
+        <v>0.01397121759510443</v>
       </c>
       <c r="F40">
-        <v>0.06656888793319356</v>
+        <v>0.1057466838856568</v>
       </c>
       <c r="G40">
-        <v>0.1176873983637757</v>
+        <v>0.04623491486934253</v>
       </c>
       <c r="H40">
-        <v>-0.0612068654481901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08372010663251364</v>
+      </c>
+      <c r="I40">
+        <v>-0.03620127711572706</v>
+      </c>
+      <c r="J40">
+        <v>-0.01228938216955893</v>
+      </c>
+      <c r="K40">
+        <v>0.06610959931739036</v>
+      </c>
+      <c r="L40">
+        <v>0.1053473468095237</v>
+      </c>
+      <c r="M40">
+        <v>0.1083437306202079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04633988772326908</v>
+        <v>0.04025834849612795</v>
       </c>
       <c r="C41">
-        <v>0.04345148023470084</v>
+        <v>0.03893535557709701</v>
       </c>
       <c r="D41">
-        <v>0.001031766995917367</v>
+        <v>0.0148768165141708</v>
       </c>
       <c r="E41">
-        <v>-0.0005976303026655418</v>
+        <v>-0.001078204570024634</v>
       </c>
       <c r="F41">
-        <v>0.03319549008914996</v>
+        <v>0.02588498287281395</v>
       </c>
       <c r="G41">
-        <v>0.01401404083836635</v>
+        <v>-0.01990652171603186</v>
       </c>
       <c r="H41">
-        <v>-0.01498153294593416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.00396774728992939</v>
+      </c>
+      <c r="I41">
+        <v>-0.01564704431772657</v>
+      </c>
+      <c r="J41">
+        <v>-0.03947585506102899</v>
+      </c>
+      <c r="K41">
+        <v>0.03630298940042213</v>
+      </c>
+      <c r="L41">
+        <v>0.001421115094833058</v>
+      </c>
+      <c r="M41">
+        <v>-0.0109809020945746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06248076436208583</v>
+        <v>0.05086462428476927</v>
       </c>
       <c r="C43">
-        <v>0.03411317464109467</v>
+        <v>0.04505567497598988</v>
       </c>
       <c r="D43">
-        <v>0.02384523084972529</v>
+        <v>-0.01173717802029079</v>
       </c>
       <c r="E43">
-        <v>-0.0334913411019921</v>
+        <v>0.01444919566054421</v>
       </c>
       <c r="F43">
-        <v>0.01780849261954118</v>
+        <v>0.01731173854872642</v>
       </c>
       <c r="G43">
-        <v>-0.002777868600349612</v>
+        <v>-0.04541690943967761</v>
       </c>
       <c r="H43">
-        <v>-0.008807746325102563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.008630813235405949</v>
+      </c>
+      <c r="I43">
+        <v>0.01447139621219419</v>
+      </c>
+      <c r="J43">
+        <v>-0.04614061256917762</v>
+      </c>
+      <c r="K43">
+        <v>0.0144420634893407</v>
+      </c>
+      <c r="L43">
+        <v>-0.009885732919290562</v>
+      </c>
+      <c r="M43">
+        <v>-0.0277742275108681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05030987128689664</v>
+        <v>0.08449011393561354</v>
       </c>
       <c r="C44">
-        <v>0.01746444720950616</v>
+        <v>0.05893563981906348</v>
       </c>
       <c r="D44">
-        <v>0.07879995471871759</v>
+        <v>-0.07871487770126738</v>
       </c>
       <c r="E44">
-        <v>-0.09742515337069264</v>
+        <v>0.1032186436857581</v>
       </c>
       <c r="F44">
-        <v>0.03617267556426011</v>
+        <v>0.1742131780718306</v>
       </c>
       <c r="G44">
-        <v>0.122344498469962</v>
+        <v>0.0115077530199414</v>
       </c>
       <c r="H44">
-        <v>0.01431202490868061</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.02551842340566065</v>
+      </c>
+      <c r="I44">
+        <v>-0.06472209259627267</v>
+      </c>
+      <c r="J44">
+        <v>-0.01031634454373822</v>
+      </c>
+      <c r="K44">
+        <v>-0.0208061206228111</v>
+      </c>
+      <c r="L44">
+        <v>0.01609786633166524</v>
+      </c>
+      <c r="M44">
+        <v>0.07683512372169231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02802733402815143</v>
+        <v>0.03451515780436954</v>
       </c>
       <c r="C46">
-        <v>0.0441587595574278</v>
+        <v>0.04077946963491139</v>
       </c>
       <c r="D46">
-        <v>0.01186153737739563</v>
+        <v>-0.03870923893271198</v>
       </c>
       <c r="E46">
-        <v>-0.04352650870003928</v>
+        <v>0.04167458064651625</v>
       </c>
       <c r="F46">
-        <v>0.01173257382124024</v>
+        <v>0.04815644041414119</v>
       </c>
       <c r="G46">
-        <v>-0.002508715854708002</v>
+        <v>0.01031387879695021</v>
       </c>
       <c r="H46">
-        <v>0.01067263604108559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.0009582748180173143</v>
+      </c>
+      <c r="I46">
+        <v>-0.03630350166020866</v>
+      </c>
+      <c r="J46">
+        <v>-0.008646172956576874</v>
+      </c>
+      <c r="K46">
+        <v>0.12028003704008</v>
+      </c>
+      <c r="L46">
+        <v>-0.03518768240215176</v>
+      </c>
+      <c r="M46">
+        <v>-0.03085024423494166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02548294066106165</v>
+        <v>0.04097687728133015</v>
       </c>
       <c r="C47">
-        <v>0.005770081057649899</v>
+        <v>0.0277792865916493</v>
       </c>
       <c r="D47">
-        <v>-0.001646174689602438</v>
+        <v>-0.01808617573534036</v>
       </c>
       <c r="E47">
-        <v>-0.06729479581512335</v>
+        <v>0.01364869708584618</v>
       </c>
       <c r="F47">
-        <v>0.02098684506171369</v>
+        <v>0.03966015379699851</v>
       </c>
       <c r="G47">
-        <v>-0.006524603261538387</v>
+        <v>-0.004782695312188561</v>
       </c>
       <c r="H47">
-        <v>0.04458085011256796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.009064673523772118</v>
+      </c>
+      <c r="I47">
+        <v>0.0178167613230273</v>
+      </c>
+      <c r="J47">
+        <v>0.009819185087665785</v>
+      </c>
+      <c r="K47">
+        <v>0.04520325568610394</v>
+      </c>
+      <c r="L47">
+        <v>0.001289140915446419</v>
+      </c>
+      <c r="M47">
+        <v>-0.04627960499783097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.0369206127801387</v>
+        <v>0.04263630232512013</v>
       </c>
       <c r="C48">
-        <v>0.02308094535735864</v>
+        <v>0.0211107523146412</v>
       </c>
       <c r="D48">
-        <v>-0.003131123826787333</v>
+        <v>-0.0101507007195418</v>
       </c>
       <c r="E48">
-        <v>-0.05554783643146918</v>
+        <v>0.00298451419057898</v>
       </c>
       <c r="F48">
-        <v>0.02070086834099264</v>
+        <v>0.07112591680802997</v>
       </c>
       <c r="G48">
-        <v>-0.01994186768909371</v>
+        <v>0.03006820586057397</v>
       </c>
       <c r="H48">
-        <v>-0.002484845287435114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.02581711223622458</v>
+      </c>
+      <c r="I48">
+        <v>0.009458997319728947</v>
+      </c>
+      <c r="J48">
+        <v>-0.007835166443348928</v>
+      </c>
+      <c r="K48">
+        <v>0.04405107800715596</v>
+      </c>
+      <c r="L48">
+        <v>-0.04048698518904811</v>
+      </c>
+      <c r="M48">
+        <v>-0.05271806843617277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2209582781241984</v>
+        <v>0.2253872341060246</v>
       </c>
       <c r="C49">
-        <v>0.1151411162718688</v>
+        <v>0.07726601253918962</v>
       </c>
       <c r="D49">
-        <v>0.04005771870413379</v>
+        <v>0.05079745390548876</v>
       </c>
       <c r="E49">
-        <v>0.05269067250675937</v>
+        <v>0.02526258245951119</v>
       </c>
       <c r="F49">
-        <v>-0.1732210009920678</v>
+        <v>-0.2344855468967439</v>
       </c>
       <c r="G49">
-        <v>0.04789157687206193</v>
+        <v>0.07497511424702982</v>
       </c>
       <c r="H49">
-        <v>-0.03307939456359416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1727827544031852</v>
+      </c>
+      <c r="I49">
+        <v>-0.08793449569312387</v>
+      </c>
+      <c r="J49">
+        <v>0.02485062227958566</v>
+      </c>
+      <c r="K49">
+        <v>-0.1406073372602514</v>
+      </c>
+      <c r="L49">
+        <v>-0.002525096359098436</v>
+      </c>
+      <c r="M49">
+        <v>-0.07746709249886367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05490083427598387</v>
+        <v>0.04682379379484931</v>
       </c>
       <c r="C50">
-        <v>0.02233622331263049</v>
+        <v>0.04043253404284933</v>
       </c>
       <c r="D50">
-        <v>-0.003879404880253734</v>
+        <v>-0.0009636434783576795</v>
       </c>
       <c r="E50">
-        <v>-0.02861622185904633</v>
+        <v>-0.01083565540302327</v>
       </c>
       <c r="F50">
-        <v>0.04579584597179767</v>
+        <v>0.05300206306331593</v>
       </c>
       <c r="G50">
-        <v>-0.04630849912605293</v>
+        <v>-0.02958781220925461</v>
       </c>
       <c r="H50">
-        <v>0.03568617491190786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02939290722170432</v>
+      </c>
+      <c r="I50">
+        <v>0.008165695654105753</v>
+      </c>
+      <c r="J50">
+        <v>0.01589742694525847</v>
+      </c>
+      <c r="K50">
+        <v>0.05371265196616841</v>
+      </c>
+      <c r="L50">
+        <v>-0.02646751396489785</v>
+      </c>
+      <c r="M50">
+        <v>0.005116085967246114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02968323203160071</v>
+        <v>0.02636926608142051</v>
       </c>
       <c r="C51">
-        <v>0.01537992113192668</v>
+        <v>0.005655591322767556</v>
       </c>
       <c r="D51">
-        <v>0.004845269398753444</v>
+        <v>0.0009782266385069331</v>
       </c>
       <c r="E51">
-        <v>-0.001042250552114714</v>
+        <v>0.01711339797719414</v>
       </c>
       <c r="F51">
-        <v>0.01545180992693498</v>
+        <v>-0.02290113558297546</v>
       </c>
       <c r="G51">
-        <v>0.0065651879831303</v>
+        <v>-0.003345003873530356</v>
       </c>
       <c r="H51">
-        <v>-0.02022979142855404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.004796589765339377</v>
+      </c>
+      <c r="I51">
+        <v>-0.007598698309281204</v>
+      </c>
+      <c r="J51">
+        <v>-0.01853867694506664</v>
+      </c>
+      <c r="K51">
+        <v>-0.07591284269800233</v>
+      </c>
+      <c r="L51">
+        <v>-0.02613743703095897</v>
+      </c>
+      <c r="M51">
+        <v>0.0008297050350409189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03827889713773302</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01214137512469506</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01693862548213211</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.00505599388219253</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02320385465177069</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05456115381267829</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01029656038690648</v>
+      </c>
+      <c r="I52">
+        <v>-0.00860894220023772</v>
+      </c>
+      <c r="J52">
+        <v>0.03229708910439356</v>
+      </c>
+      <c r="K52">
+        <v>-0.01520893076713811</v>
+      </c>
+      <c r="L52">
+        <v>-0.02135488938773819</v>
+      </c>
+      <c r="M52">
+        <v>0.04278668372277285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1684915683225867</v>
+        <v>0.160752387884957</v>
       </c>
       <c r="C53">
-        <v>-0.001350344101050647</v>
+        <v>0.04570854137902321</v>
       </c>
       <c r="D53">
-        <v>0.02208274898478686</v>
+        <v>0.01504852537040959</v>
       </c>
       <c r="E53">
-        <v>0.07944834392562328</v>
+        <v>-0.003068218241814208</v>
       </c>
       <c r="F53">
-        <v>0.2431103664878992</v>
+        <v>-0.04433154943933966</v>
       </c>
       <c r="G53">
-        <v>-0.04810605346768289</v>
+        <v>-0.192735338693088</v>
       </c>
       <c r="H53">
-        <v>0.05980373262735813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1878544379860202</v>
+      </c>
+      <c r="I53">
+        <v>-0.07403122135761234</v>
+      </c>
+      <c r="J53">
+        <v>0.1088757493998454</v>
+      </c>
+      <c r="K53">
+        <v>0.02314888286824394</v>
+      </c>
+      <c r="L53">
+        <v>0.01005890409154336</v>
+      </c>
+      <c r="M53">
+        <v>0.07550026797279384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04959607469948478</v>
+        <v>0.05497693813274734</v>
       </c>
       <c r="C54">
-        <v>0.03005639778385688</v>
+        <v>0.04249627475136022</v>
       </c>
       <c r="D54">
-        <v>0.02642029871318884</v>
+        <v>-0.01609014056620563</v>
       </c>
       <c r="E54">
-        <v>-0.05362847681877018</v>
+        <v>0.02512146369464661</v>
       </c>
       <c r="F54">
-        <v>0.01818638877255883</v>
+        <v>0.1229442782030559</v>
       </c>
       <c r="G54">
-        <v>0.003211394251607766</v>
+        <v>0.05506443657458094</v>
       </c>
       <c r="H54">
-        <v>0.01458819167120767</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0337924159524016</v>
+      </c>
+      <c r="I54">
+        <v>0.03606909699553777</v>
+      </c>
+      <c r="J54">
+        <v>-0.03961422151292379</v>
+      </c>
+      <c r="K54">
+        <v>0.1369820572141097</v>
+      </c>
+      <c r="L54">
+        <v>-0.02230101542744526</v>
+      </c>
+      <c r="M54">
+        <v>-0.03878338495912251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.08969291094601782</v>
+        <v>0.0850865247599118</v>
       </c>
       <c r="C55">
-        <v>-9.971375652425605e-05</v>
+        <v>0.0370809654653421</v>
       </c>
       <c r="D55">
-        <v>0.01657737284233527</v>
+        <v>0.02858067858999881</v>
       </c>
       <c r="E55">
-        <v>0.0146382793580168</v>
+        <v>0.01011097637569519</v>
       </c>
       <c r="F55">
-        <v>0.1969740388556105</v>
+        <v>0.01343727002541405</v>
       </c>
       <c r="G55">
-        <v>-0.04905677210323299</v>
+        <v>-0.1005778051843235</v>
       </c>
       <c r="H55">
-        <v>0.07095063011640997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1402326341614197</v>
+      </c>
+      <c r="I55">
+        <v>-0.0500842553708771</v>
+      </c>
+      <c r="J55">
+        <v>0.0568790178035373</v>
+      </c>
+      <c r="K55">
+        <v>0.01267692663628489</v>
+      </c>
+      <c r="L55">
+        <v>0.004169695052831715</v>
+      </c>
+      <c r="M55">
+        <v>-0.02747052276569368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1629635466043811</v>
+        <v>0.1514906960045118</v>
       </c>
       <c r="C56">
-        <v>0.0027593552123914</v>
+        <v>0.06683179193596117</v>
       </c>
       <c r="D56">
-        <v>0.02550963972703707</v>
+        <v>0.03358235262058427</v>
       </c>
       <c r="E56">
-        <v>0.08195055515514366</v>
+        <v>0.01794399808952773</v>
       </c>
       <c r="F56">
-        <v>0.2145549183893208</v>
+        <v>-0.0240998390755882</v>
       </c>
       <c r="G56">
-        <v>-0.08868526857975831</v>
+        <v>-0.1765914549082095</v>
       </c>
       <c r="H56">
-        <v>0.03602840856102246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1753155067741548</v>
+      </c>
+      <c r="I56">
+        <v>-0.07027155628404444</v>
+      </c>
+      <c r="J56">
+        <v>0.08169431289084982</v>
+      </c>
+      <c r="K56">
+        <v>0.01651028831094148</v>
+      </c>
+      <c r="L56">
+        <v>0.05832452726777265</v>
+      </c>
+      <c r="M56">
+        <v>0.02576632344535742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02820435539722644</v>
+        <v>0.0387632778503229</v>
       </c>
       <c r="C58">
-        <v>0.05011955126168868</v>
+        <v>0.03618383711774922</v>
       </c>
       <c r="D58">
-        <v>-0.03903505292666452</v>
+        <v>-0.08423257731428611</v>
       </c>
       <c r="E58">
-        <v>-0.3762397295443982</v>
+        <v>0.01329912983271608</v>
       </c>
       <c r="F58">
-        <v>-0.354083643707545</v>
+        <v>0.0398060973467456</v>
       </c>
       <c r="G58">
-        <v>-0.1023354516128968</v>
+        <v>-0.001422473073106517</v>
       </c>
       <c r="H58">
-        <v>0.2322753030577025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1381725438416807</v>
+      </c>
+      <c r="I58">
+        <v>0.07563811872531656</v>
+      </c>
+      <c r="J58">
+        <v>-0.1301317879539519</v>
+      </c>
+      <c r="K58">
+        <v>-0.1074325346975582</v>
+      </c>
+      <c r="L58">
+        <v>-0.4637092865217809</v>
+      </c>
+      <c r="M58">
+        <v>-0.01416551406809967</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2083390242600751</v>
+        <v>0.2269953885058757</v>
       </c>
       <c r="C59">
-        <v>-0.4006822945137321</v>
+        <v>-0.2953146728477976</v>
       </c>
       <c r="D59">
-        <v>0.08483754501015033</v>
+        <v>0.04195685716179544</v>
       </c>
       <c r="E59">
-        <v>-0.0008142345987581624</v>
+        <v>0.007356337247884604</v>
       </c>
       <c r="F59">
-        <v>0.04931782073605641</v>
+        <v>0.01984811015483226</v>
       </c>
       <c r="G59">
-        <v>0.0515794019132006</v>
+        <v>-0.0161760116025328</v>
       </c>
       <c r="H59">
-        <v>-0.05556228959416676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1126583990554301</v>
+      </c>
+      <c r="I59">
+        <v>-0.02827415205022762</v>
+      </c>
+      <c r="J59">
+        <v>-0.02622812036620652</v>
+      </c>
+      <c r="K59">
+        <v>-0.09853231962182299</v>
+      </c>
+      <c r="L59">
+        <v>0.07329933679738465</v>
+      </c>
+      <c r="M59">
+        <v>0.0530698301113437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2599606682725711</v>
+        <v>0.2399185333291095</v>
       </c>
       <c r="C60">
-        <v>0.07244043286762919</v>
+        <v>0.1228168814742768</v>
       </c>
       <c r="D60">
-        <v>0.07514311049373036</v>
+        <v>0.06230747833847435</v>
       </c>
       <c r="E60">
-        <v>0.01176633672299406</v>
+        <v>0.04477907193658124</v>
       </c>
       <c r="F60">
-        <v>-0.03624866373013547</v>
+        <v>-0.1208969526110395</v>
       </c>
       <c r="G60">
-        <v>-0.0177056885091671</v>
+        <v>0.00291772831107719</v>
       </c>
       <c r="H60">
-        <v>0.03360739856413972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.08077583320904483</v>
+      </c>
+      <c r="I60">
+        <v>0.06956475374391054</v>
+      </c>
+      <c r="J60">
+        <v>0.211735275937684</v>
+      </c>
+      <c r="K60">
+        <v>-0.1506030120836644</v>
+      </c>
+      <c r="L60">
+        <v>0.01308043144265846</v>
+      </c>
+      <c r="M60">
+        <v>0.05773359350774051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08993546054486623</v>
+        <v>0.1028518641790555</v>
       </c>
       <c r="C61">
-        <v>0.05024826363410617</v>
+        <v>0.06501564535960991</v>
       </c>
       <c r="D61">
-        <v>0.003269885222721022</v>
+        <v>0.04770594137046561</v>
       </c>
       <c r="E61">
-        <v>-0.001110003764281906</v>
+        <v>0.01151506786455453</v>
       </c>
       <c r="F61">
-        <v>0.0194553091938248</v>
+        <v>0.1438783357974349</v>
       </c>
       <c r="G61">
-        <v>0.0328590388659562</v>
+        <v>-0.07665751162881465</v>
       </c>
       <c r="H61">
-        <v>-0.061369352140272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.03181031694487965</v>
+      </c>
+      <c r="I61">
+        <v>-0.03613927705980691</v>
+      </c>
+      <c r="J61">
+        <v>-0.1009676565752991</v>
+      </c>
+      <c r="K61">
+        <v>-0.02612443313232997</v>
+      </c>
+      <c r="L61">
+        <v>-0.04321411001988334</v>
+      </c>
+      <c r="M61">
+        <v>-0.01872999133984163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1550492123659413</v>
+        <v>0.1426731610619398</v>
       </c>
       <c r="C62">
-        <v>0.03054621490979187</v>
+        <v>0.06977224095834464</v>
       </c>
       <c r="D62">
-        <v>-0.01760238116156431</v>
+        <v>0.03229290282824118</v>
       </c>
       <c r="E62">
-        <v>0.146399710121721</v>
+        <v>-0.02750280785447523</v>
       </c>
       <c r="F62">
-        <v>0.2210109221507989</v>
+        <v>-0.03584830570680153</v>
       </c>
       <c r="G62">
-        <v>-0.02739577626314274</v>
+        <v>-0.1298703736681223</v>
       </c>
       <c r="H62">
-        <v>0.004500907656163139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1609719058918617</v>
+      </c>
+      <c r="I62">
+        <v>-0.09536756708060797</v>
+      </c>
+      <c r="J62">
+        <v>0.1048546329977951</v>
+      </c>
+      <c r="K62">
+        <v>0.07985878439053522</v>
+      </c>
+      <c r="L62">
+        <v>0.07487879395276609</v>
+      </c>
+      <c r="M62">
+        <v>-0.05484949057968014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03644810498489935</v>
+        <v>0.0457925388939045</v>
       </c>
       <c r="C63">
-        <v>0.02957238059777406</v>
+        <v>0.02915081665904249</v>
       </c>
       <c r="D63">
-        <v>-0.002501047642842294</v>
+        <v>0.003336905149245252</v>
       </c>
       <c r="E63">
-        <v>-0.004703581626166097</v>
+        <v>-0.01607806350032798</v>
       </c>
       <c r="F63">
-        <v>0.02160049294846366</v>
+        <v>0.07287763344796705</v>
       </c>
       <c r="G63">
-        <v>0.002153765084223886</v>
+        <v>0.007041918967301433</v>
       </c>
       <c r="H63">
-        <v>0.0522429328666604</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.01175824545054498</v>
+      </c>
+      <c r="I63">
+        <v>-0.0002036177636620206</v>
+      </c>
+      <c r="J63">
+        <v>-0.013981317007759</v>
+      </c>
+      <c r="K63">
+        <v>0.03414654353076634</v>
+      </c>
+      <c r="L63">
+        <v>-0.04531505691934002</v>
+      </c>
+      <c r="M63">
+        <v>-0.03811992753748808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1100693469667712</v>
+        <v>0.09916367211575607</v>
       </c>
       <c r="C64">
-        <v>0.03463161152285233</v>
+        <v>0.04550826957645103</v>
       </c>
       <c r="D64">
-        <v>0.04044432271540353</v>
+        <v>-0.005621826947693449</v>
       </c>
       <c r="E64">
-        <v>-0.04276961756036447</v>
+        <v>0.04108722161170677</v>
       </c>
       <c r="F64">
-        <v>-0.007143477600787273</v>
+        <v>0.07669690724549746</v>
       </c>
       <c r="G64">
-        <v>0.06074527442453172</v>
+        <v>-0.0198729703253856</v>
       </c>
       <c r="H64">
-        <v>-0.03249621188660266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08413124480734357</v>
+      </c>
+      <c r="I64">
+        <v>0.03489135428881856</v>
+      </c>
+      <c r="J64">
+        <v>-0.027532164455561</v>
+      </c>
+      <c r="K64">
+        <v>0.002969664729507411</v>
+      </c>
+      <c r="L64">
+        <v>0.003489167606178523</v>
+      </c>
+      <c r="M64">
+        <v>0.0323396543858431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1238892868768861</v>
+        <v>0.1247237045585852</v>
       </c>
       <c r="C65">
-        <v>0.0404987402422327</v>
+        <v>0.04911171880442849</v>
       </c>
       <c r="D65">
-        <v>0.01935241355329293</v>
+        <v>0.01534741174412517</v>
       </c>
       <c r="E65">
-        <v>-0.07612949193640989</v>
+        <v>-0.02883524708332233</v>
       </c>
       <c r="F65">
-        <v>-0.1563547278559221</v>
+        <v>-0.0175112910176152</v>
       </c>
       <c r="G65">
-        <v>-0.1350217505167143</v>
+        <v>0.101051291493698</v>
       </c>
       <c r="H65">
-        <v>0.6317537549554325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.05713668816895404</v>
+      </c>
+      <c r="I65">
+        <v>0.4518973539833224</v>
+      </c>
+      <c r="J65">
+        <v>0.4932573703089172</v>
+      </c>
+      <c r="K65">
+        <v>0.1729786192246636</v>
+      </c>
+      <c r="L65">
+        <v>-0.2055164124224021</v>
+      </c>
+      <c r="M65">
+        <v>0.01162435445897874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1608451067766077</v>
+        <v>0.1342199012928034</v>
       </c>
       <c r="C66">
-        <v>0.1037885078024281</v>
+        <v>0.1282821512123856</v>
       </c>
       <c r="D66">
-        <v>-0.01345339990858229</v>
+        <v>0.09933952366962552</v>
       </c>
       <c r="E66">
-        <v>0.002048488778877404</v>
+        <v>-0.04110914099195034</v>
       </c>
       <c r="F66">
-        <v>0.05170028558629463</v>
+        <v>0.1749259703895601</v>
       </c>
       <c r="G66">
-        <v>0.2039695684239926</v>
+        <v>-0.10879768083372</v>
       </c>
       <c r="H66">
-        <v>-0.1746469627857</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1162051269382472</v>
+      </c>
+      <c r="I66">
+        <v>-0.06746140648926763</v>
+      </c>
+      <c r="J66">
+        <v>-0.123789438477546</v>
+      </c>
+      <c r="K66">
+        <v>-0.169552204797402</v>
+      </c>
+      <c r="L66">
+        <v>-0.01863715341069356</v>
+      </c>
+      <c r="M66">
+        <v>0.1016541020422148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08985962674475971</v>
+        <v>0.07457407211224297</v>
       </c>
       <c r="C67">
-        <v>0.05526006880826124</v>
+        <v>0.05611187022104158</v>
       </c>
       <c r="D67">
-        <v>0.02154432448572641</v>
+        <v>-0.01869265581577414</v>
       </c>
       <c r="E67">
-        <v>-0.00897870453398363</v>
+        <v>0.02380399677105718</v>
       </c>
       <c r="F67">
-        <v>0.04489576920822431</v>
+        <v>-0.04142013349956485</v>
       </c>
       <c r="G67">
-        <v>0.02114934925598464</v>
+        <v>-0.06780283366562609</v>
       </c>
       <c r="H67">
-        <v>-0.03858819428475202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.02171863541295313</v>
+      </c>
+      <c r="I67">
+        <v>-0.006050222741484221</v>
+      </c>
+      <c r="J67">
+        <v>-0.03189141584705272</v>
+      </c>
+      <c r="K67">
+        <v>0.009595661228295471</v>
+      </c>
+      <c r="L67">
+        <v>0.1580341737897684</v>
+      </c>
+      <c r="M67">
+        <v>0.06040446116739304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.08197409435280784</v>
+        <v>0.1229972733293438</v>
       </c>
       <c r="C68">
-        <v>-0.2875573769166644</v>
+        <v>-0.2718173085073229</v>
       </c>
       <c r="D68">
-        <v>0.02842434523205064</v>
+        <v>0.007841430185790123</v>
       </c>
       <c r="E68">
-        <v>-0.0318600226789407</v>
+        <v>-0.004938241711775379</v>
       </c>
       <c r="F68">
-        <v>0.02062325253337429</v>
+        <v>0.04303722696518957</v>
       </c>
       <c r="G68">
-        <v>-0.04181667861332816</v>
+        <v>-0.02380329720298404</v>
       </c>
       <c r="H68">
-        <v>0.02457313807085607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.006401833637942462</v>
+      </c>
+      <c r="I68">
+        <v>0.02974360764837731</v>
+      </c>
+      <c r="J68">
+        <v>0.02930075626040002</v>
+      </c>
+      <c r="K68">
+        <v>0.03132526453197082</v>
+      </c>
+      <c r="L68">
+        <v>-0.04546240990469407</v>
+      </c>
+      <c r="M68">
+        <v>-0.01171681789542845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03348062261476988</v>
+        <v>0.04532317444103856</v>
       </c>
       <c r="C69">
-        <v>0.01932546677218208</v>
+        <v>0.02079006395886977</v>
       </c>
       <c r="D69">
-        <v>0.004815757397141845</v>
+        <v>-0.005300723406967062</v>
       </c>
       <c r="E69">
-        <v>-0.01052227504365925</v>
+        <v>0.005654256817757751</v>
       </c>
       <c r="F69">
-        <v>0.03187864019954226</v>
+        <v>0.02112499230790852</v>
       </c>
       <c r="G69">
-        <v>0.03323567524964732</v>
+        <v>-0.02931765156958416</v>
       </c>
       <c r="H69">
-        <v>0.01840779909416859</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.000635120888154317</v>
+      </c>
+      <c r="I69">
+        <v>0.005804276963294145</v>
+      </c>
+      <c r="J69">
+        <v>-0.01251616168141395</v>
+      </c>
+      <c r="K69">
+        <v>0.01748402776207729</v>
+      </c>
+      <c r="L69">
+        <v>0.01372157432100344</v>
+      </c>
+      <c r="M69">
+        <v>-0.05496786011640316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05836137423953913</v>
+        <v>0.05343478011230113</v>
       </c>
       <c r="C70">
-        <v>0.01233302452313839</v>
+        <v>0.02692851035629093</v>
       </c>
       <c r="D70">
-        <v>0.037413441934531</v>
+        <v>0.02832959917855081</v>
       </c>
       <c r="E70">
-        <v>0.01287026218263163</v>
+        <v>0.03714627552055479</v>
       </c>
       <c r="F70">
-        <v>-0.1043070510859325</v>
+        <v>0.02006785067657265</v>
       </c>
       <c r="G70">
-        <v>-0.02433719538618243</v>
+        <v>0.05206362289006791</v>
       </c>
       <c r="H70">
-        <v>-0.04574675914717565</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02338406492473465</v>
+      </c>
+      <c r="I70">
+        <v>0.06584448831313304</v>
+      </c>
+      <c r="J70">
+        <v>-0.1231706094927732</v>
+      </c>
+      <c r="K70">
+        <v>0.3137848826649714</v>
+      </c>
+      <c r="L70">
+        <v>0.1499999140582539</v>
+      </c>
+      <c r="M70">
+        <v>0.1045630497327333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08743155751357529</v>
+        <v>0.1384502639057014</v>
       </c>
       <c r="C71">
-        <v>-0.282560616303794</v>
+        <v>-0.2793038155553523</v>
       </c>
       <c r="D71">
-        <v>0.05909598735991414</v>
+        <v>0.01167409341687333</v>
       </c>
       <c r="E71">
-        <v>-0.01642180240239156</v>
+        <v>0.01669798525141138</v>
       </c>
       <c r="F71">
-        <v>-0.009003295422076708</v>
+        <v>0.03492469755868433</v>
       </c>
       <c r="G71">
-        <v>-0.01663035262707948</v>
+        <v>-0.03315750855612737</v>
       </c>
       <c r="H71">
-        <v>0.003861507934233193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.01965269134490452</v>
+      </c>
+      <c r="I71">
+        <v>0.01695245556882504</v>
+      </c>
+      <c r="J71">
+        <v>0.005722656013132159</v>
+      </c>
+      <c r="K71">
+        <v>0.004066586287075618</v>
+      </c>
+      <c r="L71">
+        <v>-0.02536725250238379</v>
+      </c>
+      <c r="M71">
+        <v>-0.01069299747188425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1790943123682176</v>
+        <v>0.1482348426558665</v>
       </c>
       <c r="C72">
-        <v>-0.0007551304806354224</v>
+        <v>0.02569312912675915</v>
       </c>
       <c r="D72">
-        <v>-0.2411510446321637</v>
+        <v>-0.0002679832528610549</v>
       </c>
       <c r="E72">
-        <v>0.03505837851044468</v>
+        <v>-0.1748646185951979</v>
       </c>
       <c r="F72">
-        <v>0.0788815895343853</v>
+        <v>0.03597282468713065</v>
       </c>
       <c r="G72">
-        <v>0.05626435834565761</v>
+        <v>-0.05475127653308008</v>
       </c>
       <c r="H72">
-        <v>0.1178212317944164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02086469685256386</v>
+      </c>
+      <c r="I72">
+        <v>0.04037553334556776</v>
+      </c>
+      <c r="J72">
+        <v>0.1442323292239635</v>
+      </c>
+      <c r="K72">
+        <v>-0.02120230721349609</v>
+      </c>
+      <c r="L72">
+        <v>0.03535118946844427</v>
+      </c>
+      <c r="M72">
+        <v>0.02563712051059357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2960294557568443</v>
+        <v>0.2435910267543315</v>
       </c>
       <c r="C73">
-        <v>0.1771191230966478</v>
+        <v>0.1529659254403275</v>
       </c>
       <c r="D73">
-        <v>0.08834507868907943</v>
+        <v>0.1365495577886091</v>
       </c>
       <c r="E73">
-        <v>0.05018883418046835</v>
+        <v>0.1060762398881658</v>
       </c>
       <c r="F73">
-        <v>-0.1964372765036483</v>
+        <v>-0.4554631102363301</v>
       </c>
       <c r="G73">
-        <v>-0.02828612124452427</v>
+        <v>-0.03159622420339212</v>
       </c>
       <c r="H73">
-        <v>0.146854019053968</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3124164273355644</v>
+      </c>
+      <c r="I73">
+        <v>-0.02069107390391896</v>
+      </c>
+      <c r="J73">
+        <v>-0.01715217828508375</v>
+      </c>
+      <c r="K73">
+        <v>-0.3395279832642395</v>
+      </c>
+      <c r="L73">
+        <v>-0.1178251436913391</v>
+      </c>
+      <c r="M73">
+        <v>0.1143241463820874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09402033425057386</v>
+        <v>0.09983654204894374</v>
       </c>
       <c r="C74">
-        <v>0.03257643141945626</v>
+        <v>0.07079089562008464</v>
       </c>
       <c r="D74">
-        <v>0.001821776357310005</v>
+        <v>0.01107740161140755</v>
       </c>
       <c r="E74">
-        <v>0.01771090238271237</v>
+        <v>-0.007000627977398114</v>
       </c>
       <c r="F74">
-        <v>0.1158819553066597</v>
+        <v>-0.02125692065354143</v>
       </c>
       <c r="G74">
-        <v>-0.05791792519957704</v>
+        <v>-0.1490376599016583</v>
       </c>
       <c r="H74">
-        <v>0.06159527282833825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.05532105442266175</v>
+      </c>
+      <c r="I74">
+        <v>-0.03883003832041507</v>
+      </c>
+      <c r="J74">
+        <v>0.04340645104065462</v>
+      </c>
+      <c r="K74">
+        <v>0.007256734238711414</v>
+      </c>
+      <c r="L74">
+        <v>-0.008139147201403319</v>
+      </c>
+      <c r="M74">
+        <v>-0.004456642361842577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.08973650210304086</v>
+        <v>0.09666389555120657</v>
       </c>
       <c r="C75">
-        <v>0.01226220663773414</v>
+        <v>0.05177313500941839</v>
       </c>
       <c r="D75">
-        <v>0.004159460000598296</v>
+        <v>0.008077751967213141</v>
       </c>
       <c r="E75">
-        <v>0.04273040993442761</v>
+        <v>-0.006784489372726827</v>
       </c>
       <c r="F75">
-        <v>0.1052374878739799</v>
+        <v>-0.02303024681534499</v>
       </c>
       <c r="G75">
-        <v>-0.06013069070979001</v>
+        <v>-0.07383055448477779</v>
       </c>
       <c r="H75">
-        <v>0.009129677342170447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1138007296852805</v>
+      </c>
+      <c r="I75">
+        <v>-0.02329822862743332</v>
+      </c>
+      <c r="J75">
+        <v>0.04277922425154695</v>
+      </c>
+      <c r="K75">
+        <v>0.002483641319998316</v>
+      </c>
+      <c r="L75">
+        <v>0.02186366033950889</v>
+      </c>
+      <c r="M75">
+        <v>-0.05256193272193321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1317350237490141</v>
+        <v>0.0782764215599801</v>
       </c>
       <c r="C76">
-        <v>0.02509516034549987</v>
+        <v>0.05717532639539671</v>
       </c>
       <c r="D76">
-        <v>0.01868422868977715</v>
+        <v>0.002963316780398044</v>
       </c>
       <c r="E76">
-        <v>0.0215175969156995</v>
+        <v>0.009289871418637161</v>
       </c>
       <c r="F76">
-        <v>0.2202568868485703</v>
+        <v>-0.0503319499498056</v>
       </c>
       <c r="G76">
-        <v>-0.09422188159478667</v>
+        <v>-0.1166768955543028</v>
       </c>
       <c r="H76">
-        <v>0.05777856742825354</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1712053693565427</v>
+      </c>
+      <c r="I76">
+        <v>-0.05868117614137372</v>
+      </c>
+      <c r="J76">
+        <v>0.02312688918500475</v>
+      </c>
+      <c r="K76">
+        <v>0.02605616519927249</v>
+      </c>
+      <c r="L76">
+        <v>0.00771343650121888</v>
+      </c>
+      <c r="M76">
+        <v>0.01925771532933194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.0739316921319601</v>
+        <v>0.06942975732874961</v>
       </c>
       <c r="C77">
-        <v>0.03192799837706853</v>
+        <v>0.02539753451353105</v>
       </c>
       <c r="D77">
-        <v>0.02671790548790105</v>
+        <v>0.02364181464846113</v>
       </c>
       <c r="E77">
-        <v>-0.1181292032311945</v>
+        <v>0.05406643193498342</v>
       </c>
       <c r="F77">
-        <v>-0.08492293146131631</v>
+        <v>0.2339717605289673</v>
       </c>
       <c r="G77">
-        <v>0.6880127024016287</v>
+        <v>0.08644647794839808</v>
       </c>
       <c r="H77">
-        <v>-0.02945725734969174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1798489968178714</v>
+      </c>
+      <c r="I77">
+        <v>0.2619516517820125</v>
+      </c>
+      <c r="J77">
+        <v>0.0460670318000537</v>
+      </c>
+      <c r="K77">
+        <v>-0.2841314530790137</v>
+      </c>
+      <c r="L77">
+        <v>0.6422617460204391</v>
+      </c>
+      <c r="M77">
+        <v>0.08278589117080172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1635838940176642</v>
+        <v>0.1524052123664698</v>
       </c>
       <c r="C78">
-        <v>0.09374259447809616</v>
+        <v>0.1165454227594397</v>
       </c>
       <c r="D78">
-        <v>0.03350282502787308</v>
+        <v>-0.1931696927413739</v>
       </c>
       <c r="E78">
-        <v>-0.2000337789869911</v>
+        <v>0.07714480184706599</v>
       </c>
       <c r="F78">
-        <v>-0.003823756151266379</v>
+        <v>0.09709244663038194</v>
       </c>
       <c r="G78">
-        <v>0.05649082722227928</v>
+        <v>0.5644041932144285</v>
       </c>
       <c r="H78">
-        <v>-0.05916423549774652</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5522560743039535</v>
+      </c>
+      <c r="I78">
+        <v>0.05553519655704676</v>
+      </c>
+      <c r="J78">
+        <v>-0.06935440480659548</v>
+      </c>
+      <c r="K78">
+        <v>-0.3554065111882977</v>
+      </c>
+      <c r="L78">
+        <v>-0.09501884977286218</v>
+      </c>
+      <c r="M78">
+        <v>0.1902595889301804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1375605666532685</v>
+        <v>0.1351257263997548</v>
       </c>
       <c r="C79">
-        <v>0.0339427428256838</v>
+        <v>0.07557115245044881</v>
       </c>
       <c r="D79">
-        <v>0.007162890728426205</v>
+        <v>0.003553785741042556</v>
       </c>
       <c r="E79">
-        <v>0.05609943875928245</v>
+        <v>0.004257065880944841</v>
       </c>
       <c r="F79">
-        <v>0.1583221746050807</v>
+        <v>0.008319184462853502</v>
       </c>
       <c r="G79">
-        <v>-0.04984464152625034</v>
+        <v>-0.1299136393577679</v>
       </c>
       <c r="H79">
-        <v>0.00664749251341751</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1160952428301756</v>
+      </c>
+      <c r="I79">
+        <v>-0.06597479025746361</v>
+      </c>
+      <c r="J79">
+        <v>0.0746234629487216</v>
+      </c>
+      <c r="K79">
+        <v>0.02921980829841887</v>
+      </c>
+      <c r="L79">
+        <v>0.04060369501781332</v>
+      </c>
+      <c r="M79">
+        <v>-0.05334308371307807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03361343325880597</v>
+        <v>0.05869796296457381</v>
       </c>
       <c r="C80">
-        <v>0.007943114557626925</v>
+        <v>0.02880839228877888</v>
       </c>
       <c r="D80">
-        <v>0.008810469415782901</v>
+        <v>0.07257079585789353</v>
       </c>
       <c r="E80">
-        <v>0.03275779860188355</v>
+        <v>0.01880401602734268</v>
       </c>
       <c r="F80">
-        <v>0.007222149492123043</v>
+        <v>0.03593673060477173</v>
       </c>
       <c r="G80">
-        <v>0.008122987646448383</v>
+        <v>0.01945998682655342</v>
       </c>
       <c r="H80">
-        <v>0.09073718032683181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.006667553317424948</v>
+      </c>
+      <c r="I80">
+        <v>0.0531027995691648</v>
+      </c>
+      <c r="J80">
+        <v>-0.04906003546895817</v>
+      </c>
+      <c r="K80">
+        <v>0.1170081823100475</v>
+      </c>
+      <c r="L80">
+        <v>-0.1562459594775815</v>
+      </c>
+      <c r="M80">
+        <v>0.01710542324274765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1052739557068808</v>
+        <v>0.1215155675309109</v>
       </c>
       <c r="C81">
-        <v>0.0324774928474067</v>
+        <v>0.06716258043273597</v>
       </c>
       <c r="D81">
-        <v>0.01836416376237969</v>
+        <v>0.0005996064653666763</v>
       </c>
       <c r="E81">
-        <v>0.05859362700789857</v>
+        <v>-0.001627820661416702</v>
       </c>
       <c r="F81">
-        <v>0.1282746831068201</v>
+        <v>0.02190270133595331</v>
       </c>
       <c r="G81">
-        <v>-0.03301644809762593</v>
+        <v>-0.09036320741579096</v>
       </c>
       <c r="H81">
-        <v>-0.007045843336801052</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.1026826137401025</v>
+      </c>
+      <c r="I81">
+        <v>-0.06655152829850194</v>
+      </c>
+      <c r="J81">
+        <v>0.05028303345817611</v>
+      </c>
+      <c r="K81">
+        <v>0.01307131952852572</v>
+      </c>
+      <c r="L81">
+        <v>0.03022856495906634</v>
+      </c>
+      <c r="M81">
+        <v>-0.08518394442397817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1121088466317075</v>
+        <v>0.1251973029938673</v>
       </c>
       <c r="C82">
-        <v>0.02783835167209928</v>
+        <v>0.05262657516084029</v>
       </c>
       <c r="D82">
-        <v>0.06535971125661384</v>
+        <v>0.02605341991382426</v>
       </c>
       <c r="E82">
-        <v>0.0763929703403874</v>
+        <v>0.005724575820733715</v>
       </c>
       <c r="F82">
-        <v>0.2321226654149358</v>
+        <v>-0.007994570290471677</v>
       </c>
       <c r="G82">
-        <v>-0.06229390554430124</v>
+        <v>-0.1928642526243799</v>
       </c>
       <c r="H82">
-        <v>0.003841664974682944</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.145718938669763</v>
+      </c>
+      <c r="I82">
+        <v>-0.1239458783541122</v>
+      </c>
+      <c r="J82">
+        <v>-0.01412462913588101</v>
+      </c>
+      <c r="K82">
+        <v>0.06575124146396323</v>
+      </c>
+      <c r="L82">
+        <v>0.03900775352434011</v>
+      </c>
+      <c r="M82">
+        <v>-0.04771213619479526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08455192729288076</v>
+        <v>0.07537649800055735</v>
       </c>
       <c r="C83">
-        <v>0.06966795689384121</v>
+        <v>0.07809548351228775</v>
       </c>
       <c r="D83">
-        <v>0.04640536005658839</v>
+        <v>0.03366435885065835</v>
       </c>
       <c r="E83">
-        <v>-0.000503737516895303</v>
+        <v>0.01967177161045458</v>
       </c>
       <c r="F83">
-        <v>-0.04248143137600853</v>
+        <v>0.04531877222769794</v>
       </c>
       <c r="G83">
-        <v>0.03309614298075978</v>
+        <v>-0.0650966128476137</v>
       </c>
       <c r="H83">
-        <v>-0.04366443118023672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02584585456926219</v>
+      </c>
+      <c r="I83">
+        <v>0.07797469763800199</v>
+      </c>
+      <c r="J83">
+        <v>-0.1324830455328672</v>
+      </c>
+      <c r="K83">
+        <v>0.09204392288499429</v>
+      </c>
+      <c r="L83">
+        <v>0.001075288444757185</v>
+      </c>
+      <c r="M83">
+        <v>0.09619436937809279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05756965477044435</v>
+        <v>0.05571536433239058</v>
       </c>
       <c r="C84">
-        <v>0.04620089612841359</v>
+        <v>-0.01532671039222229</v>
       </c>
       <c r="D84">
-        <v>-0.0566731536918897</v>
+        <v>-2.748033506630169e-05</v>
       </c>
       <c r="E84">
-        <v>-0.02077231385039804</v>
+        <v>-0.02668596493611103</v>
       </c>
       <c r="F84">
-        <v>0.0348335554090164</v>
+        <v>0.01913489648280881</v>
       </c>
       <c r="G84">
-        <v>-0.1555172191061595</v>
+        <v>0.1700033970322492</v>
       </c>
       <c r="H84">
-        <v>-0.01956823902238438</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.09736616760455204</v>
+      </c>
+      <c r="I84">
+        <v>-0.2394784698343836</v>
+      </c>
+      <c r="J84">
+        <v>-0.08964115122785121</v>
+      </c>
+      <c r="K84">
+        <v>0.08446888341100293</v>
+      </c>
+      <c r="L84">
+        <v>-0.1782262157391825</v>
+      </c>
+      <c r="M84">
+        <v>0.1935661985771309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08774452865221695</v>
+        <v>0.1111325775646601</v>
       </c>
       <c r="C85">
-        <v>0.02876152589840449</v>
+        <v>0.05148787399808178</v>
       </c>
       <c r="D85">
-        <v>0.04036032311979198</v>
+        <v>0.01285347981555347</v>
       </c>
       <c r="E85">
-        <v>0.04265701333450472</v>
+        <v>0.03476014981569751</v>
       </c>
       <c r="F85">
-        <v>0.1793264635888248</v>
+        <v>0.007073181007058359</v>
       </c>
       <c r="G85">
-        <v>-0.01851972325561548</v>
+        <v>-0.1362688198331067</v>
       </c>
       <c r="H85">
-        <v>0.05756436025292307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1190311459532221</v>
+      </c>
+      <c r="I85">
+        <v>-0.0662284010561487</v>
+      </c>
+      <c r="J85">
+        <v>0.09433118868616081</v>
+      </c>
+      <c r="K85">
+        <v>0.01275253589195174</v>
+      </c>
+      <c r="L85">
+        <v>0.04475145601156154</v>
+      </c>
+      <c r="M85">
+        <v>-0.05366459708763392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0445929858034913</v>
+        <v>0.07407123116495672</v>
       </c>
       <c r="C86">
-        <v>0.03564120412580973</v>
+        <v>0.02792746030840552</v>
       </c>
       <c r="D86">
-        <v>0.02712908015765602</v>
+        <v>-0.01910620451968567</v>
       </c>
       <c r="E86">
-        <v>-0.03487731149823157</v>
+        <v>0.115615094529562</v>
       </c>
       <c r="F86">
-        <v>0.0004342600787768314</v>
+        <v>0.03642176070470809</v>
       </c>
       <c r="G86">
-        <v>0.05077693337991376</v>
+        <v>0.3601948775529754</v>
       </c>
       <c r="H86">
-        <v>0.1498733188670016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.2170836989001224</v>
+      </c>
+      <c r="I86">
+        <v>-0.6071530387945148</v>
+      </c>
+      <c r="J86">
+        <v>0.4065610249501993</v>
+      </c>
+      <c r="K86">
+        <v>0.199471469457682</v>
+      </c>
+      <c r="L86">
+        <v>0.07882742262077713</v>
+      </c>
+      <c r="M86">
+        <v>0.1588149834494383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09188709400177605</v>
+        <v>0.1088410051234931</v>
       </c>
       <c r="C87">
-        <v>0.0577018058772174</v>
+        <v>0.07240396581981724</v>
       </c>
       <c r="D87">
-        <v>-0.000309495617006431</v>
+        <v>-0.02472645947049856</v>
       </c>
       <c r="E87">
-        <v>-0.06549421706296873</v>
+        <v>0.02713686934482218</v>
       </c>
       <c r="F87">
-        <v>0.0009092981144910951</v>
+        <v>0.1168735734307734</v>
       </c>
       <c r="G87">
-        <v>0.1284675606060978</v>
+        <v>0.06243557542515442</v>
       </c>
       <c r="H87">
-        <v>-0.03944288221368849</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09602493234256097</v>
+      </c>
+      <c r="I87">
+        <v>0.06084940370439562</v>
+      </c>
+      <c r="J87">
+        <v>-0.03654364570727931</v>
+      </c>
+      <c r="K87">
+        <v>0.04030995283984128</v>
+      </c>
+      <c r="L87">
+        <v>0.2076809433332177</v>
+      </c>
+      <c r="M87">
+        <v>-0.1422965623292197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05602105533069231</v>
+        <v>0.05876402139919896</v>
       </c>
       <c r="C88">
-        <v>0.03980496591107698</v>
+        <v>0.05571668272143413</v>
       </c>
       <c r="D88">
-        <v>0.02121168345483659</v>
+        <v>0.03090049406996844</v>
       </c>
       <c r="E88">
-        <v>-0.007618316064434325</v>
+        <v>0.00565440217303058</v>
       </c>
       <c r="F88">
-        <v>-0.00524668582236138</v>
+        <v>0.04153543549909803</v>
       </c>
       <c r="G88">
-        <v>0.03232557900717791</v>
+        <v>-0.03598292089183643</v>
       </c>
       <c r="H88">
-        <v>-0.01499235325191433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02244969132144487</v>
+      </c>
+      <c r="I88">
+        <v>0.0008920628576023345</v>
+      </c>
+      <c r="J88">
+        <v>-0.03885270869326411</v>
+      </c>
+      <c r="K88">
+        <v>0.01394684612601048</v>
+      </c>
+      <c r="L88">
+        <v>-0.05591655094978034</v>
+      </c>
+      <c r="M88">
+        <v>-0.05524797448804529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1453311213252172</v>
+        <v>0.2072865630600117</v>
       </c>
       <c r="C89">
-        <v>-0.3403219556435617</v>
+        <v>-0.3622126502190848</v>
       </c>
       <c r="D89">
-        <v>0.0908377671348049</v>
+        <v>-0.04855008302210812</v>
       </c>
       <c r="E89">
-        <v>-0.09129245241648611</v>
+        <v>0.07609588020698707</v>
       </c>
       <c r="F89">
-        <v>-0.06035690695767937</v>
+        <v>0.01132766989360093</v>
       </c>
       <c r="G89">
-        <v>0.03655710927577077</v>
+        <v>0.03203476726509393</v>
       </c>
       <c r="H89">
-        <v>0.002710309141046029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01696511120026422</v>
+      </c>
+      <c r="I89">
+        <v>-0.002863348105265368</v>
+      </c>
+      <c r="J89">
+        <v>-0.07627912598784702</v>
+      </c>
+      <c r="K89">
+        <v>-0.01175329169209962</v>
+      </c>
+      <c r="L89">
+        <v>-0.03085141520575696</v>
+      </c>
+      <c r="M89">
+        <v>-0.03288493994099614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1106089294052642</v>
+        <v>0.1517932362317953</v>
       </c>
       <c r="C90">
-        <v>-0.275336068124611</v>
+        <v>-0.267817300759431</v>
       </c>
       <c r="D90">
-        <v>0.04113839905781469</v>
+        <v>0.007404692907078551</v>
       </c>
       <c r="E90">
-        <v>-0.06124634919107549</v>
+        <v>0.01362737970475547</v>
       </c>
       <c r="F90">
-        <v>-0.02858040344407332</v>
+        <v>0.03329121587458978</v>
       </c>
       <c r="G90">
-        <v>0.1076116655873009</v>
+        <v>-0.01440012613271709</v>
       </c>
       <c r="H90">
-        <v>-0.01343207992074415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.07215555285729955</v>
+      </c>
+      <c r="I90">
+        <v>0.003585078828929911</v>
+      </c>
+      <c r="J90">
+        <v>-0.009383391528274974</v>
+      </c>
+      <c r="K90">
+        <v>-0.04258234236613766</v>
+      </c>
+      <c r="L90">
+        <v>-0.02100309994365984</v>
+      </c>
+      <c r="M90">
+        <v>0.04964384887224015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07990214084826879</v>
+        <v>0.08055073759705729</v>
       </c>
       <c r="C91">
-        <v>0.01697855492884699</v>
+        <v>0.05328923067647821</v>
       </c>
       <c r="D91">
-        <v>0.01017537344833495</v>
+        <v>-0.002742258669334818</v>
       </c>
       <c r="E91">
-        <v>-0.006160630718967373</v>
+        <v>0.01077691664970087</v>
       </c>
       <c r="F91">
-        <v>0.09285956048003166</v>
+        <v>-0.006561609054659892</v>
       </c>
       <c r="G91">
-        <v>-0.07183886038446217</v>
+        <v>-0.07756491760968728</v>
       </c>
       <c r="H91">
-        <v>0.008128322755411137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.07156532013008449</v>
+      </c>
+      <c r="I91">
+        <v>-0.04474256971362906</v>
+      </c>
+      <c r="J91">
+        <v>0.02462637524755303</v>
+      </c>
+      <c r="K91">
+        <v>-0.003645493786584502</v>
+      </c>
+      <c r="L91">
+        <v>-0.01254374177477601</v>
+      </c>
+      <c r="M91">
+        <v>0.01012300591464174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.117508247379094</v>
+        <v>0.1709201857088835</v>
       </c>
       <c r="C92">
-        <v>-0.3167059531783167</v>
+        <v>-0.3138083109750741</v>
       </c>
       <c r="D92">
-        <v>0.07614319783167406</v>
+        <v>-0.03584108521748639</v>
       </c>
       <c r="E92">
-        <v>-0.0508407329018108</v>
+        <v>0.04828128749672748</v>
       </c>
       <c r="F92">
-        <v>-0.04266685606309885</v>
+        <v>0.04005846792373528</v>
       </c>
       <c r="G92">
-        <v>-0.09760348901428967</v>
+        <v>-0.01319195211537793</v>
       </c>
       <c r="H92">
-        <v>-0.01177306891050049</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03183117951244675</v>
+      </c>
+      <c r="I92">
+        <v>-0.009765099046568871</v>
+      </c>
+      <c r="J92">
+        <v>-0.05080321239033318</v>
+      </c>
+      <c r="K92">
+        <v>0.001859547214207299</v>
+      </c>
+      <c r="L92">
+        <v>-0.05045131781441754</v>
+      </c>
+      <c r="M92">
+        <v>-0.06324498627393123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1200694708892412</v>
+        <v>0.1616052006635963</v>
       </c>
       <c r="C93">
-        <v>-0.2657247065446963</v>
+        <v>-0.2894073074748305</v>
       </c>
       <c r="D93">
-        <v>0.04866517079162661</v>
+        <v>0.03171115368361997</v>
       </c>
       <c r="E93">
-        <v>-0.02527987521923535</v>
+        <v>0.005546237409086547</v>
       </c>
       <c r="F93">
-        <v>-0.03527832820998195</v>
+        <v>0.01934424661547705</v>
       </c>
       <c r="G93">
-        <v>0.02221883219152745</v>
+        <v>0.00463242655349058</v>
       </c>
       <c r="H93">
-        <v>-0.005388329619499813</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04043034817706855</v>
+      </c>
+      <c r="I93">
+        <v>-0.007057979533243007</v>
+      </c>
+      <c r="J93">
+        <v>0.01016864122154014</v>
+      </c>
+      <c r="K93">
+        <v>0.03818820422422518</v>
+      </c>
+      <c r="L93">
+        <v>-0.002265785020937469</v>
+      </c>
+      <c r="M93">
+        <v>0.008583462713684681</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09521755061669052</v>
+        <v>0.113988832243294</v>
       </c>
       <c r="C94">
-        <v>0.05227730240483089</v>
+        <v>0.07176727573847161</v>
       </c>
       <c r="D94">
-        <v>0.007851653953961937</v>
+        <v>-0.01598080373600032</v>
       </c>
       <c r="E94">
-        <v>0.001402203544230006</v>
+        <v>0.02147148151490746</v>
       </c>
       <c r="F94">
-        <v>0.1525023024135199</v>
+        <v>-0.02536379552668332</v>
       </c>
       <c r="G94">
-        <v>-0.09896540091506152</v>
+        <v>-0.1140025307031982</v>
       </c>
       <c r="H94">
-        <v>0.04684795198990285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1038154222718399</v>
+      </c>
+      <c r="I94">
+        <v>-0.03155428511211039</v>
+      </c>
+      <c r="J94">
+        <v>0.03366015239560146</v>
+      </c>
+      <c r="K94">
+        <v>-0.01010002085208179</v>
+      </c>
+      <c r="L94">
+        <v>-0.04444123905513901</v>
+      </c>
+      <c r="M94">
+        <v>-0.006467981689004429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1112350508964159</v>
+        <v>0.1143327065552026</v>
       </c>
       <c r="C95">
-        <v>0.07965436134313565</v>
+        <v>0.0732755018615828</v>
       </c>
       <c r="D95">
-        <v>0.06473425900387091</v>
+        <v>-0.02250094954088112</v>
       </c>
       <c r="E95">
-        <v>-0.04345516774306786</v>
+        <v>0.06256031574176407</v>
       </c>
       <c r="F95">
-        <v>-0.06145361450563619</v>
+        <v>0.06034671168679009</v>
       </c>
       <c r="G95">
-        <v>0.0448895090988647</v>
+        <v>0.2201218863975083</v>
       </c>
       <c r="H95">
-        <v>-0.005241665590624904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.158536334165391</v>
+      </c>
+      <c r="I95">
+        <v>-0.01578697890602804</v>
+      </c>
+      <c r="J95">
+        <v>0.0004713470936910351</v>
+      </c>
+      <c r="K95">
+        <v>0.03544608995467684</v>
+      </c>
+      <c r="L95">
+        <v>0.005163813079580476</v>
+      </c>
+      <c r="M95">
+        <v>-0.5960344519817629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0002876873260964324</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0009925661012586131</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1.332556654759607e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.002493347590896462</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0001319337786067001</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.003847069466514174</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.005142142005758204</v>
+      </c>
+      <c r="I96">
+        <v>0.002085269560851357</v>
+      </c>
+      <c r="J96">
+        <v>0.0006321486491762764</v>
+      </c>
+      <c r="K96">
+        <v>-0.003548489308736804</v>
+      </c>
+      <c r="L96">
+        <v>-0.003966071358901289</v>
+      </c>
+      <c r="M96">
+        <v>0.007919088428784256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2249022944683895</v>
+        <v>0.1548827036127903</v>
       </c>
       <c r="C97">
-        <v>-0.1096944407046738</v>
+        <v>0.01049496654030191</v>
       </c>
       <c r="D97">
-        <v>-0.8970111716519032</v>
+        <v>-0.09547504943848119</v>
       </c>
       <c r="E97">
-        <v>0.0791987743965441</v>
+        <v>-0.9321608469406849</v>
       </c>
       <c r="F97">
-        <v>-0.1000293494810461</v>
+        <v>0.01698390849568133</v>
       </c>
       <c r="G97">
-        <v>0.02942965286222566</v>
+        <v>0.1012614023319947</v>
       </c>
       <c r="H97">
-        <v>-0.02147910141500593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.06725983725923713</v>
+      </c>
+      <c r="I97">
+        <v>-0.0640991319035169</v>
+      </c>
+      <c r="J97">
+        <v>-0.02401040037101904</v>
+      </c>
+      <c r="K97">
+        <v>-0.01497115641587359</v>
+      </c>
+      <c r="L97">
+        <v>0.02942716097798947</v>
+      </c>
+      <c r="M97">
+        <v>0.01601191843071274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.3020903702718183</v>
+        <v>0.2554864884090995</v>
       </c>
       <c r="C98">
-        <v>0.1153728270893346</v>
+        <v>0.1117756791695231</v>
       </c>
       <c r="D98">
-        <v>0.1133225349445773</v>
+        <v>-0.01312601214490664</v>
       </c>
       <c r="E98">
-        <v>0.2674398361392739</v>
+        <v>0.01402548222403561</v>
       </c>
       <c r="F98">
-        <v>-0.4562466221368475</v>
+        <v>-0.4594897476858011</v>
       </c>
       <c r="G98">
-        <v>-0.3250248142135813</v>
+        <v>0.2337859223141076</v>
       </c>
       <c r="H98">
-        <v>-0.4481459984786218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.04825265075944404</v>
+      </c>
+      <c r="I98">
+        <v>0.14884131995953</v>
+      </c>
+      <c r="J98">
+        <v>-0.441747381136377</v>
+      </c>
+      <c r="K98">
+        <v>0.3779779737857965</v>
+      </c>
+      <c r="L98">
+        <v>0.1697904287125277</v>
+      </c>
+      <c r="M98">
+        <v>0.02556078724900594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06641558857937822</v>
+        <v>0.06727329168253002</v>
       </c>
       <c r="C99">
-        <v>0.05135549155423674</v>
+        <v>0.05636038839477397</v>
       </c>
       <c r="D99">
-        <v>0.0331366720860627</v>
+        <v>-0.005533235000526517</v>
       </c>
       <c r="E99">
-        <v>0.01107899953400855</v>
+        <v>0.0369825856871407</v>
       </c>
       <c r="F99">
-        <v>-0.01478012087768635</v>
+        <v>-0.01887693367007434</v>
       </c>
       <c r="G99">
-        <v>0.01431728645546865</v>
+        <v>-0.01401410850694696</v>
       </c>
       <c r="H99">
-        <v>-0.07652203369089194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02320612072365934</v>
+      </c>
+      <c r="I99">
+        <v>-0.00235251053811402</v>
+      </c>
+      <c r="J99">
+        <v>-0.03513805099494779</v>
+      </c>
+      <c r="K99">
+        <v>-0.0373354491871189</v>
+      </c>
+      <c r="L99">
+        <v>0.05342517210834102</v>
+      </c>
+      <c r="M99">
+        <v>-0.02273618541308605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.002776924377246491</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.003341821303948373</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.003953019213108115</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.007240907420551195</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.01257823416217942</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.006569455641382571</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.002505442631719841</v>
+      </c>
+      <c r="I100">
+        <v>0.008697784345406474</v>
+      </c>
+      <c r="J100">
+        <v>-0.01917994402447521</v>
+      </c>
+      <c r="K100">
+        <v>0.02576358076707575</v>
+      </c>
+      <c r="L100">
+        <v>0.01614369563965096</v>
+      </c>
+      <c r="M100">
+        <v>-0.01255186265258889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05159619572909572</v>
+        <v>0.04039497578416575</v>
       </c>
       <c r="C101">
-        <v>0.01447282656902264</v>
+        <v>0.02742027356814799</v>
       </c>
       <c r="D101">
-        <v>0.01125201705402813</v>
+        <v>0.006479439057853613</v>
       </c>
       <c r="E101">
-        <v>-0.02848541163928532</v>
+        <v>0.02296480907813555</v>
       </c>
       <c r="F101">
-        <v>0.005524141364419166</v>
+        <v>0.06469211828891726</v>
       </c>
       <c r="G101">
-        <v>-0.01576813346682343</v>
+        <v>-0.01000229278019123</v>
       </c>
       <c r="H101">
-        <v>0.01658566759505044</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01568438320393404</v>
+      </c>
+      <c r="I101">
+        <v>0.00493620097715659</v>
+      </c>
+      <c r="J101">
+        <v>-0.01139030201156751</v>
+      </c>
+      <c r="K101">
+        <v>0.08818352145223102</v>
+      </c>
+      <c r="L101">
+        <v>-0.02193738972309356</v>
+      </c>
+      <c r="M101">
+        <v>-0.01646801158027468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
